--- a/public/templates/SalesOrderImportV1.xlsx
+++ b/public/templates/SalesOrderImportV1.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD6768A-888D-45DE-BEC1-400F6103CADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7701DC91-2B98-496F-9831-476327B5B9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ORDER NO</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Selling price will be taken if left blank</t>
   </si>
   <si>
-    <t>order date will be considered if left blank</t>
-  </si>
-  <si>
     <t>ORDER DATE</t>
   </si>
   <si>
@@ -109,6 +106,33 @@
   </si>
   <si>
     <t>SIZE 14</t>
+  </si>
+  <si>
+    <t>GLOBAL PGSC</t>
+  </si>
+  <si>
+    <t>PACKING</t>
+  </si>
+  <si>
+    <t>MANUFACTURING UNIT</t>
+  </si>
+  <si>
+    <t>CUSTOMER PO NO</t>
+  </si>
+  <si>
+    <t>GTN PO</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>Customer Code/ Name</t>
+  </si>
+  <si>
+    <t>Item Code/ Name</t>
+  </si>
+  <si>
+    <t>Order date will be considered if left blank</t>
   </si>
 </sst>
 </file>
@@ -569,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8205206C-5E64-477F-A404-2B3DFE8FFB62}">
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:AB13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -581,22 +605,27 @@
     <col min="2" max="2" width="14.109375" customWidth="1"/>
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
-    <col min="11" max="15" width="6" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" customWidth="1"/>
-    <col min="22" max="22" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
+    <col min="14" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
+    <col min="25" max="25" width="15" customWidth="1"/>
+    <col min="26" max="26" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -604,79 +633,101 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="Z1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -688,56 +739,62 @@
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
       <c r="T2" s="5"/>
-      <c r="U2" s="5" t="s">
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
-      <c r="V3" s="6"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B4" s="6"/>
-      <c r="V4" s="6"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
-      <c r="V5" s="6"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B6" s="6"/>
-      <c r="V6" s="6"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
-      <c r="V7" s="6"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X7" s="6"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B8" s="6"/>
-      <c r="V8" s="6"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
-      <c r="V9" s="6"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X9" s="6"/>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
-      <c r="V10" s="6"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X10" s="6"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
-      <c r="V11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X11" s="6"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
-      <c r="V12" s="6"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="B13" s="6"/>
-      <c r="V13" s="6"/>
+      <c r="X13" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
